--- a/resultados_GA.xlsx
+++ b/resultados_GA.xlsx
@@ -1,22 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj428\Documents\GitHub\metaheuristicas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5838BE11-631F-4226-9B6E-DD39BA2C7A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos" sheetId="1" r:id="rId1"/>
     <sheet name="Tempos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+  <si>
+    <t>[6252. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.
+ 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.]</t>
+  </si>
+  <si>
+    <t>[6252. 6244. 6244. 6221. 6221. 6210. 6210. 6210. 6210. 6210. 6210. 6210.
+ 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.]</t>
+  </si>
+  <si>
+    <t>[6252. 6244. 6236. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.
+ 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.]</t>
+  </si>
+  <si>
+    <t>[6252. 6221. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.
+ 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.]</t>
+  </si>
+  <si>
+    <t>[6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.
+ 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.]</t>
+  </si>
+  <si>
+    <t>[6221. 6221. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.
+ 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.]</t>
+  </si>
+  <si>
+    <t>[6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252.
+ 6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252.]</t>
+  </si>
+  <si>
+    <t>[6252. 6221. 6221. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.
+ 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.]</t>
+  </si>
+  <si>
+    <t>[6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252. 6252.
+ 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.]</t>
+  </si>
+  <si>
+    <t>[6244. 6233. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.
+ 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210. 6210.]</t>
+  </si>
+  <si>
+    <t>conjunto</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>problema</t>
+  </si>
+  <si>
+    <t>mutacao</t>
+  </si>
+  <si>
+    <t>tipo_crossover</t>
+  </si>
+  <si>
+    <t>elitismo</t>
+  </si>
+  <si>
+    <t>repetição</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -79,6 +154,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -125,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -157,9 +240,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,6 +292,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,152 +485,824 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>19984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>19986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>19984</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>19984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>19986</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="C2:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="D1" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.01595735549926758</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.01891517639160156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0.01695489883422852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>0.01695489883422852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>0.01595807075500488</v>
+      <c r="D2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>22.837339401245121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>11.44274473190308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>9.9933950901031494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>8.3409178256988525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>9.0950131416320801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>10.022691965103149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>11.60406017303467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>11.99630165100098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>10.020185470581049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>13.756987810134889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>14.30884456634521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>15.00759673118591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>13.734493255615231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>14.59919333457947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>15.158327579498289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>13.356476068496701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>14.168451547622681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>15.89591908454895</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="C2:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resultados_GA.xlsx
+++ b/resultados_GA.xlsx
@@ -18,16 +18,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>[6410882. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
- 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
- 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
- 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
- 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
- 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
- 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
- 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
- 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
- 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
- 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
  6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875. 6410875.
  6410875. 6410875. 6410875. 6410875. 6410875.]</t>
   </si>
@@ -447,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>380.9890468120575</v>
+        <v>101.7707281112671</v>
       </c>
     </row>
   </sheetData>
